--- a/biology/Médecine/Klebsiella_pneumoniae/Klebsiella_pneumoniae.xlsx
+++ b/biology/Médecine/Klebsiella_pneumoniae/Klebsiella_pneumoniae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Klebsiella pneumoniae (anciennement Hyalococcus aerogenes) est l'espèce type du genre Klebsiella. C'est un bacille Gram négatif, non-mobile, encapsulé, anaérobie facultatif, capable de fermenter le lactose sur milieu MacConkey avec des colonies d'aspect mucoïdes.
 </t>
@@ -511,11 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Klebsiella pneumoniae a d'abord été décrite comme Hyalococcus pneumoniae par Schroeter[1],[3] avant d'être renommée Klebsiella pneumoniae par Trevisan. Elle est également connue sous le nom de bacille de Friedländer en l'honneur de Carl Friedländer, un pathologiste allemand, qui a proposé que cette bactérie était le facteur étiologique de la pneumonie notamment chez les personnes immunodéprimées telles que les personnes atteintes de maladies chroniques ou les alcooliques.
-Étymologie
-L'étymologie du nom d'espèce de Klebsiella pneumoniae est la suivante : pneu.mo’ni.ae. N.L. fem. n. pneumonia, maladie pulmonaire, pneumonia (inflammation des poumons); N.L. gen. fem. n. pneumoniae, de pneumonie[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Klebsiella pneumoniae a d'abord été décrite comme Hyalococcus pneumoniae par Schroeter, avant d'être renommée Klebsiella pneumoniae par Trevisan. Elle est également connue sous le nom de bacille de Friedländer en l'honneur de Carl Friedländer, un pathologiste allemand, qui a proposé que cette bactérie était le facteur étiologique de la pneumonie notamment chez les personnes immunodéprimées telles que les personnes atteintes de maladies chroniques ou les alcooliques.
 </t>
         </is>
       </c>
@@ -541,15 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Historique</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">C'est un bacille Gram négatif, non-mobile (en général), encapsulé, anaérobie facultatif, capable de fermenter le lactose sur milieu MacConkey avec des colonies d'aspect mucoïdes.
-Longtemps considérées comme exclusivement non-mobiles, l'existence de souches mobiles disposant des gènes codant des protéines flagellaires (fliC, fliA et flgH) a été confirmée en 2016[5].
-Résistance aux antibiotiques
-Initialement une bactérie faiblement résistante aux antibiotiques, des souches de Klebsiella pneumoniae multi-résistantes circulent en Europe causant des pathologies diverses mais potentiellement très grave, chez des patients non-immunodéprimés. Ces souches disposent notamment de carbapénèmase (enzyme permettant la destructions des antibiotiques de la famille des carbapénèmes)[6].
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie du nom d'espèce de Klebsiella pneumoniae est la suivante : pneu.mo’ni.ae. N.L. fem. n. pneumonia, maladie pulmonaire, pneumonia (inflammation des poumons); N.L. gen. fem. n. pneumoniae, de pneumonie.
 </t>
         </is>
       </c>
@@ -575,12 +590,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Habitat</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Klebsiella pneumoniae est normalement retrouvée dans le tractus intestinal des humains et des animaux.
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un bacille Gram négatif, non-mobile (en général), encapsulé, anaérobie facultatif, capable de fermenter le lactose sur milieu MacConkey avec des colonies d'aspect mucoïdes.
+Longtemps considérées comme exclusivement non-mobiles, l'existence de souches mobiles disposant des gènes codant des protéines flagellaires (fliC, fliA et flgH) a été confirmée en 2016.
 </t>
         </is>
       </c>
@@ -606,13 +624,88 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Résistance aux antibiotiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Initialement une bactérie faiblement résistante aux antibiotiques, des souches de Klebsiella pneumoniae multi-résistantes circulent en Europe causant des pathologies diverses mais potentiellement très grave, chez des patients non-immunodéprimés. Ces souches disposent notamment de carbapénèmase (enzyme permettant la destructions des antibiotiques de la famille des carbapénèmes).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Klebsiella_pneumoniae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Klebsiella_pneumoniae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Klebsiella pneumoniae est normalement retrouvée dans le tractus intestinal des humains et des animaux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Klebsiella_pneumoniae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Klebsiella_pneumoniae</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Sous-espèces
-Trois sous-espèces sont décrites.
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Trois sous-espèces sont décrites.
 K. pneumoniae subsp. ozaenae
 K. pneumoniae subsp. pneumoniae
 K. pneumoniae subsp. rhinoscleromatis</t>
